--- a/Demo/Config/Excel/Server/ServerConfig.xlsx
+++ b/Demo/Config/Excel/Server/ServerConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Fantasy/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0CA889-EA81-144E-B21B-5E0A28D1BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987B4057-9CAB-7247-B1B7-96014DC99BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>起服进程</t>
-  </si>
-  <si>
     <t>MachineId</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -160,6 +157,10 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate进程</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +604,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -627,18 +628,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="3">
         <v>0</v>
@@ -687,13 +688,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -702,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>8</v>
@@ -713,22 +714,22 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>10</v>
@@ -739,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -776,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16">
@@ -803,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16">
@@ -830,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16">
@@ -857,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
